--- a/xlsx/圣路易斯欧比斯普分校_intext.xlsx
+++ b/xlsx/圣路易斯欧比斯普分校_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="342">
   <si>
     <t>圣路易斯欧比斯普分校</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%B7%AF%E6%98%93%E6%96%AF-%E5%A5%A7%E6%AF%94%E6%96%AF%E4%BF%9D</t>
   </si>
   <si>
-    <t>聖路易斯-奧比斯保</t>
+    <t>圣路易斯-奥比斯保</t>
   </si>
   <si>
     <t>政策_政策_加州_圣路易斯欧比斯普分校</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>公立大學</t>
+    <t>公立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%BA%E9%87%91</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A0%A1%E9%95%B7</t>
   </si>
   <si>
-    <t>校長</t>
+    <t>校长</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%AC%E7%A7%91%E7%94%9F</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E</t>
   </si>
   <si>
-    <t>加利福尼亞州</t>
+    <t>加利福尼亚州</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NCAA</t>
@@ -113,7 +113,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞州立大學</t>
+    <t>加利福尼亚州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%B8%E5%A3%AB%E5%AD%B8%E4%BD%8D</t>
   </si>
   <si>
-    <t>學士學位</t>
+    <t>学士学位</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%95%E5%A3%AB%E5%AD%A6%E4%BD%8D</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%96%B0%E8%81%9E%E8%88%87%E4%B8%96%E7%95%8C%E5%A0%B1%E9%81%93</t>
   </si>
   <si>
-    <t>美國新聞與世界報道</t>
+    <t>美国新闻与世界报道</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%95%9D</t>
   </si>
   <si>
-    <t>英畝</t>
+    <t>英亩</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%B8%80%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%98</t>
@@ -203,7 +203,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%8E%92%E5%90%8D</t>
   </si>
   <si>
-    <t>大學排名</t>
+    <t>大学排名</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E5%B8%83%E6%96%AF</t>
@@ -221,139 +221,136 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%9B%9B%E9%A0%93%E6%9C%88%E5%88%8A</t>
   </si>
   <si>
-    <t>華盛頓月刊</t>
+    <t>华盛顿月刊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B3%95%E5%88%A9%E5%95%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>歐法利商學院</t>
+    <t>欧法利商学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%BE%8E%E5%9C%8B%E7%9A%84%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>Template talk-美國的理工學院</t>
+    <t>Template talk-美国的理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E6%8A%80%E8%A1%93%E5%AD%B8%E9%99%A2_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>空軍技術學院 (美國)</t>
+    <t>空军技术学院 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞利桑那州立大學</t>
+    <t>亚利桑那州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿肯色理工大學</t>
+    <t>阿肯色理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%8E%AB%E7%B4%8D%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波莫納加州州立理工大學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E7%A4%A6%E6%A5%AD%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科羅拉多礦業學院</t>
+    <t>科罗拉多矿业学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佛羅里達理工大學</t>
+    <t>佛罗里达理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%96%AC%E6%B2%BB%E4%BA%9E%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>喬治亞理工大學</t>
+    <t>乔治亚理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%9B%E8%8D%B7%E8%8F%AF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>愛荷華州立大學</t>
+    <t>爱荷华州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E6%96%AF%E5%AE%89%E9%82%A3%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>路易斯安那理工大學</t>
+    <t>路易斯安那理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%A5%BF%E6%A0%B9%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密西根理工大學</t>
+    <t>密西根理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E8%98%87%E9%87%8C%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>密蘇里科技大學</t>
+    <t>密苏里科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%A4%A7%E6%8B%BF%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>蒙大拿大學理工學院</t>
+    <t>蒙大拿大学理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E6%BE%A4%E8%A5%BF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新澤西理工學院</t>
+    <t>新泽西理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A2%A8%E8%A5%BF%E5%93%A5%E7%A4%A6%E6%A5%AD%E5%8F%8A%E7%A7%91%E6%8A%80%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新墨西哥礦業及科技學院</t>
+    <t>新墨西哥矿业及科技学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E5%8B%92%E5%B2%A1%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>俄勒岡理工學院</t>
+    <t>俄勒冈理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E9%81%94%E7%A7%91%E4%BB%96%E7%A4%A6%E6%A5%AD%E5%8F%8A%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>南達科他礦業及理工學院</t>
+    <t>南达科他矿业及理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E7%B4%84%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>紐約州立大學理工學院</t>
+    <t>纽约州立大学理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B0%E7%B4%8D%E8%A5%BF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>田納西理工大學</t>
+    <t>田纳西理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%96%A9%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>德克薩斯理工大學</t>
+    <t>德克萨斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E6%96%AF%E5%BA%B7%E6%98%9F%E5%A4%A7%E5%AD%B8%E6%96%AF%E6%89%98%E7%89%B9%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>威斯康星大學斯托特分校</t>
+    <t>威斯康星大学斯托特分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2%E6%9A%A8%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6</t>
@@ -365,43 +362,40 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西弗吉尼亞大學理工學院</t>
+    <t>西弗吉尼亚大学理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加州理工學院</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E6%8B%89%E5%85%8B%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>克拉克森大學</t>
+    <t>克拉克森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E7%BE%85%E6%8B%89%E5%A4%9A%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>科羅拉多理工大學</t>
+    <t>科罗拉多理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%AA%E5%90%89%E5%BD%AD%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>迪吉彭理工學院</t>
+    <t>迪吉彭理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9B%E7%BE%85%E9%87%8C%E9%81%94%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>佛羅里達理工學院</t>
+    <t>佛罗里达理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E9%87%8C%E6%96%AF%E5%A0%A1%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>哈里斯堡科技大學</t>
+    <t>哈里斯堡科技大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%88%A9%E8%AF%BA%E4%BC%8A%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -413,13 +407,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>印第安納理工學院</t>
+    <t>印第安纳理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%80%AB%E6%96%AF%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>勞倫斯理工大學</t>
+    <t>劳伦斯理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -431,7 +425,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%8B%B1%E6%A0%BC%E8%98%AD%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>新英格蘭理工學院</t>
+    <t>新英格兰理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E7%A7%91%E6%8A%80%E5%AD%A6%E9%99%A2</t>
@@ -443,7 +437,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8C%97%E7%90%86%E5%B7%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西北理工大學</t>
+    <t>西北理工大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%A6%E6%96%AF%E5%8B%92%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -461,19 +455,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E6%96%AF-%E8%B1%AA%E6%9B%BC%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>羅斯-豪曼理工學院</t>
+    <t>罗斯-豪曼理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E6%96%87%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>史蒂文斯理工學院</t>
+    <t>史蒂文斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E7%89%B9%E6%B2%83%E6%96%AF%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>溫特沃斯理工學院</t>
+    <t>温特沃斯理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E6%96%AF%E7%89%B9%E7%90%86%E5%B7%A5%E5%AD%A6%E9%99%A2</t>
@@ -485,49 +479,49 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E8%90%8A%E6%81%A9%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>亞萊恩國際大學</t>
+    <t>亚莱恩国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E7%8C%B6%E5%A4%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國猶太大學</t>
+    <t>美国犹太大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E7%88%BE%E6%A0%BC%E8%A5%BF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿爾格西大學</t>
+    <t>阿尔格西大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%98%87%E8%96%A9%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>阿蘇薩太平洋大學</t>
+    <t>阿苏萨太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E6%AD%90%E6%8B%89%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拜歐拉大學</t>
+    <t>拜欧拉大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B8%E6%9C%83%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞浸會大學</t>
+    <t>加利福尼亚浸会大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E5%B2%B8%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞海岸大學</t>
+    <t>加利福尼亚海岸大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%95%B4%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞整合學院</t>
+    <t>加利福尼亚整合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E9%99%85%E7%A7%91%E6%8A%80%E5%A4%A7%E5%AD%A6</t>
@@ -539,109 +533,109 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%B7%AF%E5%BE%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞路德大學</t>
+    <t>加利福尼亚路德大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%AF%86%E6%8B%89%E7%91%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加州密拉瑪大學</t>
+    <t>加州密拉玛大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%A5%E6%99%AE%E6%9B%BC%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>查普曼大學</t>
+    <t>查普曼大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E6%A0%BC%E5%A8%81%E7%88%BE%E5%B7%A5%E8%97%9D%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>科格威爾工藝學院</t>
+    <t>科格威尔工艺学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E5%92%8C%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>協和大學爾灣分校</t>
+    <t>协和大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%9A%E6%98%8E%E5%B0%BC%E5%85%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞多明尼克大學</t>
+    <t>加利福尼亚多明尼克大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>弗雷斯諾太平洋大學</t>
+    <t>弗雷斯诺太平洋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%96%80%E5%A4%A7%E5%AD%B8_(%E7%BE%8E%E5%9C%8B)</t>
   </si>
   <si>
-    <t>金門大學 (美國)</t>
+    <t>金门大学 (美国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%B8%E9%97%9C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>核關大學</t>
+    <t>核关大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%90%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖名大學</t>
+    <t>圣名大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%9C%9B%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>希望國際大學</t>
+    <t>希望国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E5%BC%97%E8%90%8A%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>漢弗萊斯學院</t>
+    <t>汉弗莱斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%84%E7%BF%B0%E8%82%AF%E5%B0%BC%E8%BF%AA%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>約翰肯尼迪大學</t>
+    <t>约翰肯尼迪大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E8%8B%A5%E6%9C%9B%E4%BF%9D%E7%A5%BF%E5%A4%A9%E4%B8%BB%E6%95%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>大若望保祿天主教大學</t>
+    <t>大若望保禄天主教大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%A5%BF%E7%91%9E%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉西瑞亞大學</t>
+    <t>拉西瑞亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%9F%E5%91%BD%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>生命太平洋學院</t>
+    <t>生命太平洋学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9E%97%E8%82%AF%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>林肯大學 (加利福尼亞州)</t>
+    <t>林肯大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%9E%97%E9%81%94%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>羅馬林達大學</t>
+    <t>罗马林达大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%9B%E7%BA%A6%E6%8B%89%E9%A9%AC%E5%88%A9%E8%92%99%E7%89%B9%E5%A4%A7%E5%AD%A6</t>
@@ -653,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E9%9A%86%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>曼隆學院</t>
+    <t>曼隆学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%86%E7%88%BE%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>密爾斯學院</t>
+    <t>密尔斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%8E%E5%BE%B7%E5%A4%A7%E5%AD%A6%E8%92%99%E7%89%B9%E9%9B%B7%E5%9B%BD%E9%99%85%E7%A0%94%E7%A9%B6%E5%AD%A6%E9%99%A2</t>
@@ -671,73 +665,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E7%91%AA%E9%BA%97%E5%B1%B1%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖瑪麗山大學</t>
+    <t>圣玛丽山大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%A5%BF%E7%8F%AD%E7%89%99%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>國家西班牙大學</t>
+    <t>国家西班牙大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%A4%A7%E5%AD%B8_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>國立大學 (加利福尼亞州)</t>
+    <t>国立大学 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%A3%E6%85%95%E7%88%BE%E8%81%96%E6%AF%8D%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>那慕爾聖母大學</t>
+    <t>那慕尔圣母大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E6%96%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>西方學院</t>
+    <t>西方学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E6%A9%A1%E6%A8%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋橡樹學院</t>
+    <t>太平洋橡树学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E8%81%AF%E5%90%88%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>太平洋聯合學院</t>
+    <t>太平洋联合学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BD%A9%E7%8F%80%E4%BB%A3%E5%9B%A0%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>佩珀代因大學</t>
+    <t>佩珀代因大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E5%9B%A0%E7%89%B9%E6%B4%9B%E9%A6%AC%E6%8B%BF%E6%92%92%E5%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>波因特洛馬拿撒勒大學</t>
+    <t>波因特洛马拿撒勒大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E8%81%96%E7%91%AA%E9%BA%97%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞聖瑪麗學院</t>
+    <t>加利福尼亚圣玛丽学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%B9%86%E7%88%BE%E6%A2%85%E9%87%8C%E7%89%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>塞繆爾梅里特大學</t>
+    <t>塞缪尔梅里特大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8F%AF%E9%87%91%E8%B0%B7%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>聖華金谷學院</t>
+    <t>圣华金谷学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%A3%E5%85%8B%E6%8B%89%E6%8B%89%E5%A4%A7%E5%AD%A6</t>
@@ -749,55 +743,55 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%BD%E8%B0%B7%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>矽谷大學</t>
+    <t>矽谷大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%9B%E6%99%AE%E6%A3%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>辛普森大學</t>
+    <t>辛普森大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%89%B5%E5%83%B9%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美國創價大學</t>
+    <t>美国创价大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E5%9D%A6%E7%A6%8F%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>斯坦福大學</t>
+    <t>斯坦福大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%98%E9%A6%AC%E6%96%AF%E9%98%BF%E5%A5%8E%E9%82%A3%E6%96%AF%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>托馬斯阿奎那斯學院</t>
+    <t>托马斯阿奎那斯学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E4%B8%80%E5%9C%8B%E9%9A%9B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>三一國際大學</t>
+    <t>三一国际大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%9D%9C%E9%AD%AF%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞杜魯大學</t>
+    <t>加利福尼亚杜鲁大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E6%96%87%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>拉文大學</t>
+    <t>拉文大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%BE%B7%E8%98%AD%E8%8C%B2%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>雷德蘭茲大學</t>
+    <t>雷德兰兹大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E6%B4%8B%E5%A4%A7%E5%AD%A6</t>
@@ -809,7 +803,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥大學</t>
+    <t>圣地牙哥大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%A7%E9%87%91%E5%B1%B1%E5%A4%A7%E5%AD%A6</t>
@@ -827,61 +821,61 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E4%BE%86%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>西來大學</t>
+    <t>西来大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%97%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%85%88%E9%8B%92%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>南加利福尼亞先鋒大學</t>
+    <t>南加利福尼亚先锋大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E6%96%AF%E8%92%99%E7%89%B9%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>維斯蒙特學院</t>
+    <t>维斯蒙特学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%83%A0%E8%92%82%E7%88%BE%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>惠蒂爾學院</t>
+    <t>惠蒂尔学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A8%81%E5%BB%89%E5%82%91%E7%91%9F%E6%99%AE%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>威廉傑瑟普大學</t>
+    <t>威廉杰瑟普大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8D%E5%BE%B7%E4%BC%AF%E9%87%8C%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>伍德伯里大學</t>
+    <t>伍德伯里大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>加利福尼亞大學</t>
+    <t>加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%9F%8F%E5%85%8B%E8%90%8A%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學柏克萊分校</t>
+    <t>加州大学柏克莱分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E6%88%B4%E7%B6%AD%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學戴維斯分校</t>
+    <t>加利福尼亚大学戴维斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E7%88%BE%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學爾灣分校</t>
+    <t>加州大学尔湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%A6%E6%B4%9B%E6%9D%89%E7%9F%B6%E5%88%86%E6%A0%A1</t>
@@ -893,19 +887,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E7%86%B9%E5%BE%B7%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>美熹德加利福尼亞大學</t>
+    <t>美熹德加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%A4%A7%E5%AD%B8%E6%B2%B3%E6%BF%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州大學河濱分校</t>
+    <t>加州大学河滨分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%9C%B0%E7%89%99%E5%93%A5%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖地牙哥加利福尼亞大學</t>
+    <t>圣地牙哥加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9A%E5%A4%A7%E5%AD%A6%E6%97%A7%E9%87%91%E5%B1%B1%E5%88%86%E6%A0%A1</t>
@@ -917,61 +911,61 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8%E8%81%96%E5%A1%94%E8%8A%AD%E8%8A%AD%E6%8B%89%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加利福尼亞大學聖塔芭芭拉分校</t>
+    <t>加利福尼亚大学圣塔芭芭拉分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A1%94%E5%85%8B%E9%AD%AF%E8%8C%B2%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖塔克魯茲加利福尼亞大學</t>
+    <t>圣塔克鲁兹加利福尼亚大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E6%B5%B7%E4%BA%8B%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>加利福尼亞海事學院</t>
+    <t>加利福尼亚海事学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%B2%9D%E5%85%8B%E6%96%AF%E8%8F%B2%E7%88%BE%E5%BE%B7%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學貝克斯菲爾德分校</t>
+    <t>加州州立大学贝克斯菲尔德分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%B5%B7%E5%B3%BD%E7%BE%A4%E5%B3%B6%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學海峽群島分校</t>
+    <t>加州州立大学海峡群岛分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A5%87%E7%A7%91%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學奇科分校</t>
+    <t>加州州立大学奇科分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%A4%9A%E6%98%8E%E6%A0%BC%E6%96%AF%E5%B1%B1%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學多明格斯山分校</t>
+    <t>加州州立大学多明格斯山分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%9D%B1%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學東灣分校</t>
+    <t>加州州立大学东湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%BC%97%E9%9B%B7%E6%96%AF%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學弗雷斯諾分校</t>
+    <t>加州州立大学弗雷斯诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%AF%8C%E5%8B%92%E9%A0%93%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學富勒頓分校</t>
+    <t>加州州立大学富勒顿分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%A6%E9%95%BF%E6%BB%A9%E5%88%86%E6%A0%A1</t>
@@ -983,55 +977,55 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%92%99%E7%89%B9%E5%88%A9%E7%81%A3%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學蒙特利灣分校</t>
+    <t>加州州立大学蒙特利湾分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E5%8C%97%E5%B6%BA%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學北嶺分校</t>
+    <t>加州州立大学北岭分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%96%A9%E5%85%8B%E6%8B%89%E9%96%80%E6%89%98%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學薩克拉門托分校</t>
+    <t>加州州立大学萨克拉门托分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E8%B2%9D%E7%B4%8D%E8%BF%AA%E8%AB%BE%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖貝納迪諾分校</t>
+    <t>加州州立大学圣贝纳迪诺分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E8%81%96%E9%A6%AC%E7%A7%91%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學聖馬科斯分校</t>
+    <t>加州州立大学圣马科斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E5%B7%9E%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8%E6%96%AF%E5%9D%A6%E5%B0%BC%E6%96%AF%E6%B4%9B%E6%96%AF%E5%88%86%E6%A0%A1</t>
   </si>
   <si>
-    <t>加州州立大學斯坦尼斯洛斯分校</t>
+    <t>加州州立大学斯坦尼斯洛斯分校</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B4%AA%E5%A0%A1%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>洪堡州立大學</t>
+    <t>洪堡州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E8%8D%B7%E8%A5%BF%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>聖荷西州立大學</t>
+    <t>圣荷西州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E8%AB%BE%E9%A6%AC%E5%B7%9E%E7%AB%8B%E5%A4%A7%E5%AD%B8</t>
   </si>
   <si>
-    <t>索諾馬州立大學</t>
+    <t>索诺马州立大学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%86%E5%9D%90%E6%A0%87</t>
@@ -2606,7 +2600,7 @@
         <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2632,10 +2626,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2661,10 +2655,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
         <v>83</v>
-      </c>
-      <c r="F44" t="s">
-        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2690,10 +2684,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>84</v>
+      </c>
+      <c r="F45" t="s">
         <v>85</v>
-      </c>
-      <c r="F45" t="s">
-        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2719,10 +2713,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>86</v>
+      </c>
+      <c r="F46" t="s">
         <v>87</v>
-      </c>
-      <c r="F46" t="s">
-        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2748,10 +2742,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>88</v>
+      </c>
+      <c r="F47" t="s">
         <v>89</v>
-      </c>
-      <c r="F47" t="s">
-        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2777,10 +2771,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
+        <v>90</v>
+      </c>
+      <c r="F48" t="s">
         <v>91</v>
-      </c>
-      <c r="F48" t="s">
-        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2806,10 +2800,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>92</v>
+      </c>
+      <c r="F49" t="s">
         <v>93</v>
-      </c>
-      <c r="F49" t="s">
-        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2835,10 +2829,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>94</v>
+      </c>
+      <c r="F50" t="s">
         <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2864,10 +2858,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>96</v>
+      </c>
+      <c r="F51" t="s">
         <v>97</v>
-      </c>
-      <c r="F51" t="s">
-        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2893,10 +2887,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>98</v>
+      </c>
+      <c r="F52" t="s">
         <v>99</v>
-      </c>
-      <c r="F52" t="s">
-        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2922,10 +2916,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>100</v>
+      </c>
+      <c r="F53" t="s">
         <v>101</v>
-      </c>
-      <c r="F53" t="s">
-        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2951,10 +2945,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
         <v>103</v>
-      </c>
-      <c r="F54" t="s">
-        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2980,10 +2974,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>104</v>
+      </c>
+      <c r="F55" t="s">
         <v>105</v>
-      </c>
-      <c r="F55" t="s">
-        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3009,10 +3003,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>106</v>
+      </c>
+      <c r="F56" t="s">
         <v>107</v>
-      </c>
-      <c r="F56" t="s">
-        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>1</v>
@@ -3038,10 +3032,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>108</v>
+      </c>
+      <c r="F57" t="s">
         <v>109</v>
-      </c>
-      <c r="F57" t="s">
-        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3067,10 +3061,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>110</v>
+      </c>
+      <c r="F58" t="s">
         <v>111</v>
-      </c>
-      <c r="F58" t="s">
-        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -3096,10 +3090,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>112</v>
+      </c>
+      <c r="F59" t="s">
         <v>113</v>
-      </c>
-      <c r="F59" t="s">
-        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -3125,10 +3119,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>114</v>
+      </c>
+      <c r="F60" t="s">
         <v>115</v>
-      </c>
-      <c r="F60" t="s">
-        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3154,10 +3148,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3183,10 +3177,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3212,10 +3206,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3241,10 +3235,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3270,10 +3264,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3299,10 +3293,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3328,10 +3322,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3357,10 +3351,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3386,10 +3380,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3415,10 +3409,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3444,10 +3438,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -3473,10 +3467,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3502,10 +3496,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G73" t="n">
         <v>2</v>
@@ -3531,10 +3525,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3560,10 +3554,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3589,10 +3583,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3618,10 +3612,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3647,10 +3641,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3676,10 +3670,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3705,10 +3699,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3734,10 +3728,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3763,10 +3757,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3792,10 +3786,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3821,10 +3815,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3850,10 +3844,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3879,10 +3873,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3908,10 +3902,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3937,10 +3931,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F88" t="s">
-        <v>118</v>
+        <v>8</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3966,10 +3960,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3995,10 +3989,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4024,10 +4018,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4053,10 +4047,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4082,10 +4076,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4111,10 +4105,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4140,10 +4134,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4169,10 +4163,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4198,10 +4192,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4227,10 +4221,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -4256,10 +4250,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4285,10 +4279,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4314,10 +4308,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4343,10 +4337,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4372,10 +4366,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4401,10 +4395,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4430,10 +4424,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4459,10 +4453,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4488,10 +4482,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4517,10 +4511,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4546,10 +4540,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4575,10 +4569,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4604,10 +4598,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4633,10 +4627,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4662,10 +4656,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4691,10 +4685,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4720,10 +4714,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4749,10 +4743,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4778,10 +4772,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4807,10 +4801,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4836,10 +4830,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4865,10 +4859,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4894,10 +4888,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4923,10 +4917,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4952,10 +4946,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4981,10 +4975,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5010,10 +5004,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5039,10 +5033,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5068,10 +5062,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5097,10 +5091,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5126,10 +5120,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5155,10 +5149,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5184,10 +5178,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F131" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5213,10 +5207,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F132" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5242,10 +5236,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F133" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5271,10 +5265,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F134" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="G134" t="n">
         <v>3</v>
@@ -5300,10 +5294,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="F135" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5329,10 +5323,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F136" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5358,10 +5352,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -5387,10 +5381,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5416,10 +5410,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5445,10 +5439,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5474,10 +5468,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5503,10 +5497,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5532,10 +5526,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5561,10 +5555,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G144" t="n">
         <v>3</v>
@@ -5590,10 +5584,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G145" t="n">
         <v>3</v>
@@ -5619,10 +5613,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5648,10 +5642,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G147" t="n">
         <v>2</v>
@@ -5677,10 +5671,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G148" t="n">
         <v>3</v>
@@ -5706,10 +5700,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5735,10 +5729,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5764,10 +5758,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G151" t="n">
         <v>3</v>
@@ -5793,10 +5787,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G152" t="n">
         <v>3</v>
@@ -5822,10 +5816,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G153" t="n">
         <v>1</v>
@@ -5851,10 +5845,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5880,10 +5874,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5912,7 +5906,7 @@
         <v>79</v>
       </c>
       <c r="F156" t="s">
-        <v>80</v>
+        <v>52</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5938,10 +5932,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5967,10 +5961,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5996,10 +5990,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6025,10 +6019,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6054,10 +6048,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6083,10 +6077,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="G162" t="n">
         <v>2</v>
@@ -6112,10 +6106,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6141,10 +6135,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6170,10 +6164,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6199,10 +6193,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6228,10 +6222,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6257,10 +6251,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6286,10 +6280,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="F169" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6315,10 +6309,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F170" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G170" t="n">
         <v>1</v>
@@ -6344,10 +6338,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="F171" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6373,10 +6367,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F172" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G172" t="n">
         <v>1</v>
@@ -6402,10 +6396,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="F173" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6431,10 +6425,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F174" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G174" t="n">
         <v>3</v>
@@ -6460,10 +6454,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="F175" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G175" t="n">
         <v>8</v>
@@ -6489,10 +6483,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
+        <v>339</v>
+      </c>
+      <c r="F176" t="s">
         <v>341</v>
-      </c>
-      <c r="F176" t="s">
-        <v>343</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
